--- a/TemperatureSampling/ExpectedCurve.xlsx
+++ b/TemperatureSampling/ExpectedCurve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\uni2020\Iot\SoftwareIoT\TemperatureSampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{839E1E14-6EBB-45DA-8A43-89FECE3755B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2D9808-274E-4DF3-9948-A478BD6B647C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{746CE9D5-5DD5-4A1A-ACEB-D44308EABD9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{746CE9D5-5DD5-4A1A-ACEB-D44308EABD9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Time</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Expected ADC Reading</t>
+  </si>
+  <si>
+    <t>Expected reading corrected for max value</t>
   </si>
 </sst>
 </file>
@@ -113,37 +116,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -175,6 +148,56 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0679913332981029E-2"/>
+                  <c:y val="2.1362204334296218E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="#,##0.000000000000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$26</c:f>
@@ -266,10 +289,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>4096</c:v>
+                  <c:v>4431.1272727272726</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4096</c:v>
+                  <c:v>4207.7090909090903</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4021.5272727272727</c:v>
@@ -347,6 +370,126 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5C5A-49ED-8491-231994A83786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected reading corrected for max value</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4021.5272727272727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3764.596363636364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3637.9927272727273</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3530.0072727272723</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3436.9163636363637</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3358.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3284.247272727273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3224.6690909090912</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3183.7090909090907</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3131.5781818181813</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3098.0654545454545</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3060.8290909090911</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3023.5927272727272</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2997.5272727272722</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2971.4618181818182</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2949.12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2926.7781818181816</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2911.883636363636</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2889.5418181818181</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2878.3709090909088</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2863.4763636363637</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2848.5818181818181</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2837.4109090909087</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2606.545454545454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5C5A-49ED-8491-231994A83786}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -477,6 +620,513 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-DK"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>27.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>27.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>26.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBC2-46C9-93A0-BABE16277436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1736587183"/>
+        <c:axId val="1528989951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1736587183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1528989951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1528989951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1736587183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -554,6 +1204,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1070,20 +1760,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1103,6 +2309,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C407CFC-C6B8-485E-BB6A-48F512320D7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1408,18 +2650,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B5CACA-CED9-494C-90A6-12BB54383F6D}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1432,8 +2675,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1445,11 +2691,19 @@
         <v>1.19</v>
       </c>
       <c r="D2">
-        <f>MIN(4096,(C2/1.1)*4096)</f>
+        <f>(C2/1.1)*4096</f>
+        <v>4431.1272727272726</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E27" si="0">MIN(4096,(C2/1.1)*4096)</f>
         <v>4096</v>
       </c>
+      <c r="F2" t="e">
+        <f>4607.06856*A2^(-0.152774443778699)</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1457,15 +2711,23 @@
         <v>63</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C26" si="0">(B3)*(0.01)+0.5</f>
+        <f t="shared" ref="C3:C27" si="1">(B3)*(0.01)+0.5</f>
         <v>1.1299999999999999</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D26" si="1">MIN(4096,(C3/1.1)*4096)</f>
+        <f t="shared" ref="D3:D27" si="2">(C3/1.1)*4096</f>
+        <v>4207.7090909090903</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
         <v>4096</v>
       </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F26" si="3">4607.06856*A3^(-0.152774443778699)</f>
+        <v>3602.7980715978024</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1473,15 +2735,23 @@
         <v>58</v>
       </c>
       <c r="C4">
+        <f t="shared" si="1"/>
+        <v>1.08</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>4021.5272727272727</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>1.08</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
         <v>4021.5272727272727</v>
       </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>3240.7850852348452</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>15</v>
       </c>
@@ -1489,15 +2759,23 @@
         <v>51.1</v>
       </c>
       <c r="C5">
+        <f t="shared" si="1"/>
+        <v>1.0110000000000001</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>3764.596363636364</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.0110000000000001</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
         <v>3764.596363636364</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="3"/>
+        <v>3046.1268681571487</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1505,15 +2783,23 @@
         <v>47.7</v>
       </c>
       <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.97700000000000009</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>3637.9927272727273</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.97700000000000009</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
         <v>3637.9927272727273</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="3"/>
+        <v>2915.1475491999463</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>25</v>
       </c>
@@ -1521,15 +2807,23 @@
         <v>44.8</v>
       </c>
       <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>3530.0072727272723</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
         <v>3530.0072727272723</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>2817.4431909710588</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30</v>
       </c>
@@ -1537,15 +2831,23 @@
         <v>42.3</v>
       </c>
       <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>3436.9163636363637</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
         <v>3436.9163636363637</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>2740.048797039231</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>35</v>
       </c>
@@ -1553,15 +2855,23 @@
         <v>40.200000000000003</v>
       </c>
       <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>3358.72</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
         <v>3358.72</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>2676.2737761496842</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>40</v>
       </c>
@@ -1569,15 +2879,23 @@
         <v>38.200000000000003</v>
       </c>
       <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.88200000000000012</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>3284.247272727273</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.88200000000000012</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
         <v>3284.247272727273</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>2622.2304195128804</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>45</v>
       </c>
@@ -1585,15 +2903,23 @@
         <v>36.6</v>
       </c>
       <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.8660000000000001</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>3224.6690909090912</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.8660000000000001</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
         <v>3224.6690909090912</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>2575.4673763311393</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50</v>
       </c>
@@ -1601,15 +2927,23 @@
         <v>35.5</v>
       </c>
       <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>3183.7090909090907</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.85499999999999998</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
         <v>3183.7090909090907</v>
       </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>2534.3434992308908</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>55</v>
       </c>
@@ -1617,15 +2951,23 @@
         <v>34.1</v>
       </c>
       <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>3131.5781818181813</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
         <v>3131.5781818181813</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>2497.7083940858988</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>60</v>
       </c>
@@ -1633,15 +2975,23 @@
         <v>33.200000000000003</v>
       </c>
       <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.83200000000000007</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>3098.0654545454545</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.83200000000000007</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
         <v>3098.0654545454545</v>
       </c>
+      <c r="F14">
+        <f t="shared" si="3"/>
+        <v>2464.7257764080787</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>65</v>
       </c>
@@ -1649,15 +2999,23 @@
         <v>32.200000000000003</v>
       </c>
       <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.82200000000000006</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>3060.8290909090911</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.82200000000000006</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
         <v>3060.8290909090911</v>
       </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>2434.7694595991006</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>70</v>
       </c>
@@ -1665,15 +3023,23 @@
         <v>31.2</v>
       </c>
       <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>3023.5927272727272</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
         <v>3023.5927272727272</v>
       </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>2407.3589375228444</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>75</v>
       </c>
@@ -1681,15 +3047,23 @@
         <v>30.5</v>
       </c>
       <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.80499999999999994</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>2997.5272727272722</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.80499999999999994</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
         <v>2997.5272727272722</v>
       </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>2382.1177964928802</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>80</v>
       </c>
@@ -1697,15 +3071,23 @@
         <v>29.8</v>
       </c>
       <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>2971.4618181818182</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.79800000000000004</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
         <v>2971.4618181818182</v>
       </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>2358.7459149043138</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>85</v>
       </c>
@@ -1713,15 +3095,23 @@
         <v>29.2</v>
       </c>
       <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>2949.12</v>
+      </c>
+      <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
         <v>2949.12</v>
       </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>2337.0003210454888</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>90</v>
       </c>
@@ -1729,15 +3119,23 @@
         <v>28.6</v>
       </c>
       <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>2926.7781818181816</v>
+      </c>
+      <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
         <v>2926.7781818181816</v>
       </c>
+      <c r="F20">
+        <f t="shared" si="3"/>
+        <v>2316.6816720930674</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>95</v>
       </c>
@@ -1745,15 +3143,23 @@
         <v>28.2</v>
       </c>
       <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>2911.883636363636</v>
+      </c>
+      <c r="E21">
         <f t="shared" si="0"/>
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
         <v>2911.883636363636</v>
       </c>
+      <c r="F21">
+        <f t="shared" si="3"/>
+        <v>2297.624489150875</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>100</v>
       </c>
@@ -1761,15 +3167,23 @@
         <v>27.6</v>
       </c>
       <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>2889.5418181818181</v>
+      </c>
+      <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
         <v>2889.5418181818181</v>
       </c>
+      <c r="F22">
+        <f t="shared" si="3"/>
+        <v>2279.6899659510655</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>105</v>
       </c>
@@ -1777,15 +3191,23 @@
         <v>27.3</v>
       </c>
       <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>2878.3709090909088</v>
+      </c>
+      <c r="E23">
         <f t="shared" si="0"/>
-        <v>0.77300000000000002</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
         <v>2878.3709090909088</v>
       </c>
+      <c r="F23">
+        <f t="shared" si="3"/>
+        <v>2262.7605805446933</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>110</v>
       </c>
@@ -1793,15 +3215,23 @@
         <v>26.9</v>
       </c>
       <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>2863.4763636363637</v>
+      </c>
+      <c r="E24">
         <f t="shared" si="0"/>
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
         <v>2863.4763636363637</v>
       </c>
+      <c r="F24">
+        <f t="shared" si="3"/>
+        <v>2246.7359951787753</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>115</v>
       </c>
@@ -1809,15 +3239,23 @@
         <v>26.5</v>
       </c>
       <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>2848.5818181818181</v>
+      </c>
+      <c r="E25">
         <f t="shared" si="0"/>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
         <v>2848.5818181818181</v>
       </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>2231.5298928816042</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>120</v>
       </c>
@@ -1825,12 +3263,41 @@
         <v>26.2</v>
       </c>
       <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>2837.4109090909087</v>
+      </c>
+      <c r="E26">
         <f t="shared" si="0"/>
-        <v>0.76200000000000001</v>
-      </c>
-      <c r="D26">
+        <v>2837.4109090909087</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="3"/>
+        <v>2217.067506043918</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
         <f t="shared" si="1"/>
-        <v>2837.4109090909087</v>
+        <v>0.7</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>2606.545454545454</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>2606.545454545454</v>
+      </c>
+      <c r="F27" t="e">
+        <f t="shared" ref="F27" si="4">4607.06856*A27^(-0.1527744438)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/TemperatureSampling/ExpectedCurve.xlsx
+++ b/TemperatureSampling/ExpectedCurve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\uni2020\Iot\SoftwareIoT\TemperatureSampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2D9808-274E-4DF3-9948-A478BD6B647C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22118E44-24AE-49AE-B3D3-58C38D118836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{746CE9D5-5DD5-4A1A-ACEB-D44308EABD9B}"/>
   </bookViews>
@@ -776,9 +776,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="power"/>
-            <c:dispRSqr val="1"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4787418310224505E-3"/>
+                  <c:y val="-6.6139885936967763E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -811,83 +817,80 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$26</c:f>
+              <c:f>Sheet1!$A$3:$A$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>60</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>65</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>85</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>90</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>95</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>105</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>110</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="24">
                   <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
@@ -895,83 +898,80 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$26</c:f>
+              <c:f>Sheet1!$B$3:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>69</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>51.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.1</c:v>
+                  <c:v>47.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.7</c:v>
+                  <c:v>44.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.8</c:v>
+                  <c:v>42.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.3</c:v>
+                  <c:v>40.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.200000000000003</c:v>
+                  <c:v>38.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38.200000000000003</c:v>
+                  <c:v>36.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36.6</c:v>
+                  <c:v>35.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.5</c:v>
+                  <c:v>34.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.1</c:v>
+                  <c:v>33.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>33.200000000000003</c:v>
+                  <c:v>32.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32.200000000000003</c:v>
+                  <c:v>31.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31.2</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.5</c:v>
+                  <c:v>29.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.8</c:v>
+                  <c:v>29.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.2</c:v>
+                  <c:v>28.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28.6</c:v>
+                  <c:v>28.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28.2</c:v>
+                  <c:v>27.6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27.6</c:v>
+                  <c:v>27.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27.3</c:v>
+                  <c:v>26.9</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>26.9</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>26.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
                   <c:v>26.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2316,14 +2316,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1257299</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>109536</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
@@ -2652,12 +2652,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B5CACA-CED9-494C-90A6-12BB54383F6D}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3302,6 +3303,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>